--- a/accenture.xlsx
+++ b/accenture.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="94">
   <si>
     <t>Carimbo de data/hora</t>
   </si>
@@ -252,6 +252,48 @@
   </si>
   <si>
     <t>um site de receitas com AI para buscar receitas do seu gosto</t>
+  </si>
+  <si>
+    <t>employee.c</t>
+  </si>
+  <si>
+    <t>Profissional de Marketing Digital com 3 anos de experiência em gestão de redes sociais e campanhas de tráfego pago. Apaixonado por estratégias baseadas em dados e criação de conteúdo engajador. Habilidade em ferramentas como Meta Ads, Google Analytics e SEO. Busco contribuir com minha criatividade e conhecimentos técnicos para impulsionar marcas em ambientes digitais.</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=147Kmt-SFFt0Ic2MonMMvG-QmdhWZgq7q</t>
+  </si>
+  <si>
+    <t>Marketing Digital</t>
+  </si>
+  <si>
+    <t>Universidade do Porto</t>
+  </si>
+  <si>
+    <t>Vendedor Multi-Nivel</t>
+  </si>
+  <si>
+    <t>Escola de Marketing de Gaia</t>
+  </si>
+  <si>
+    <t>Dashboard de Métricas de Desempenho de Equipe</t>
+  </si>
+  <si>
+    <t>Sistema de Gestão de Mentoria Intern</t>
+  </si>
+  <si>
+    <t>Automação de Relatórios de Projetos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Criar uma ferramenta visual para monitorar KPIs (Key Performance Indicators) da equipe, como produtividade, prazos, qualidade de entregas e satisfação.</t>
+  </si>
+  <si>
+    <t>Plataforma para conectar colaboradores seniors e juniors em programas de mentoria, com agendamento, feedback e acompanhamento.</t>
+  </si>
+  <si>
+    <t>Reduzir tempo manual com relatórios usando scripts para extrair, processar e formatar dados de planilhas ou ferramentas como Asana/Slack.</t>
+  </si>
+  <si>
+    <t>PhD</t>
   </si>
 </sst>
 </file>
@@ -261,7 +303,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yyyy h:mm:ss"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -276,6 +318,11 @@
     <font>
       <u/>
       <color rgb="FF434343"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FF0000FF"/>
       <name val="Roboto"/>
     </font>
     <font>
@@ -466,7 +513,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="28">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -521,16 +568,31 @@
     <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
+    <xf borderId="7" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="1" numFmtId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="9" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="1" numFmtId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
     <xf borderId="10" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="11" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="11" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="11" fillId="0" fontId="1" numFmtId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="12" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -594,7 +656,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:AQ5" displayName="Form_Responses1" name="Form_Responses1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:AQ7" displayName="Form_Responses1" name="Form_Responses1" id="1">
   <tableColumns count="43">
     <tableColumn name="Carimbo de data/hora" id="1"/>
     <tableColumn name="Email" id="2"/>
@@ -1284,14 +1346,124 @@
         <v>60</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" s="15">
+        <v>45793.67167484954</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="I6" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="J6" s="16">
+        <v>2.0</v>
+      </c>
+      <c r="K6" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="L6" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="M6" s="24">
+        <v>45797.0</v>
+      </c>
+      <c r="N6" s="24">
+        <v>45879.0</v>
+      </c>
+      <c r="O6" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="P6" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q6" s="24">
+        <v>44237.0</v>
+      </c>
+      <c r="R6" s="24">
+        <v>44433.0</v>
+      </c>
+      <c r="W6" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="X6" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y6" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="AB6" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="AC6" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD6" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="AG6" s="24">
+        <v>44673.0</v>
+      </c>
+      <c r="AH6" s="24">
+        <v>44734.0</v>
+      </c>
+      <c r="AI6" s="24">
+        <v>44948.0</v>
+      </c>
+      <c r="AL6" s="24">
+        <v>44734.0</v>
+      </c>
+      <c r="AM6" s="24">
+        <v>44826.0</v>
+      </c>
+      <c r="AN6" s="24">
+        <v>45557.0</v>
+      </c>
+      <c r="AQ6" s="17" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="25">
+        <v>45793.685431157406</v>
+      </c>
+      <c r="B7" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="I7" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="W7" s="26">
+        <v>1.0</v>
+      </c>
+      <c r="AQ7" s="27" t="s">
+        <v>60</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="H3"/>
     <hyperlink r:id="rId2" ref="H5"/>
+    <hyperlink r:id="rId3" ref="H6"/>
   </hyperlinks>
-  <drawing r:id="rId3"/>
+  <drawing r:id="rId4"/>
   <tableParts count="1">
-    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId6"/>
   </tableParts>
 </worksheet>
 </file>